--- a/scripts/plantillas/plantillas mesa de ayuda/01_Catalogos_Tickets/ubicaciones.xlsx
+++ b/scripts/plantillas/plantillas mesa de ayuda/01_Catalogos_Tickets/ubicaciones.xlsx
@@ -4,7 +4,6 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Instrucciones" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -398,472 +397,126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" customWidth="1"/>
-    <col min="7" max="7" width="20.83203125" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="20.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>nombre</v>
+        <v>id</v>
       </c>
       <c r="B1" t="str">
-        <v>ubicacion_padre</v>
+        <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>direccion</v>
+        <v>locations_id (padre)</v>
       </c>
       <c r="D1" t="str">
-        <v>ciudad</v>
-      </c>
-      <c r="E1" t="str">
-        <v>estado</v>
-      </c>
-      <c r="F1" t="str">
-        <v>codigo_postal</v>
-      </c>
-      <c r="G1" t="str">
-        <v>edificio</v>
-      </c>
-      <c r="H1" t="str">
-        <v>piso</v>
-      </c>
-      <c r="I1" t="str">
-        <v>comentario</v>
+        <v>comment</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>Corporativo</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>Centro</v>
       </c>
       <c r="C2" t="str">
-        <v>Av. Reforma 500</v>
+        <v>Proyecto Alto Riesgo</v>
       </c>
       <c r="D2" t="str">
-        <v>CDMX</v>
-      </c>
-      <c r="E2" t="str">
-        <v>CDMX</v>
-      </c>
-      <c r="F2" t="str">
-        <v>06600</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v>Oficinas centrales</v>
+        <v>Zona Centro del país</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>Piso 1 - Recepción</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>Corporativo</v>
+        <v>Oeste</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>Proyecto Alto Riesgo</v>
       </c>
       <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v>Principal</v>
-      </c>
-      <c r="H3" t="str">
-        <v>1</v>
-      </c>
-      <c r="I3" t="str">
-        <v/>
+        <v>Zona Oeste del país</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
-        <v>Piso 2 - Ventas</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>Corporativo</v>
+        <v>Pacífico</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Proyecto Alto Riesgo</v>
       </c>
       <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v>Principal</v>
-      </c>
-      <c r="H4" t="str">
-        <v>2</v>
-      </c>
-      <c r="I4" t="str">
-        <v/>
+        <v>Zona Pacífico del país</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>Piso 3 - TI</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>Corporativo</v>
+        <v>Sureste</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Proyecto Alto Riesgo</v>
       </c>
       <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v>Principal</v>
-      </c>
-      <c r="H5" t="str">
-        <v>3</v>
-      </c>
-      <c r="I5" t="str">
-        <v/>
+        <v>Zona Sureste del país</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
-        <v>Sucursal Norte</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>Valle de México</v>
       </c>
       <c r="C6" t="str">
-        <v>Blvd. Norte 200</v>
+        <v>Proyecto Alto Riesgo</v>
       </c>
       <c r="D6" t="str">
-        <v>Monterrey</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Nuevo León</v>
-      </c>
-      <c r="F6" t="str">
-        <v>64000</v>
-      </c>
-      <c r="G6" t="str">
-        <v/>
-      </c>
-      <c r="H6" t="str">
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <v/>
+        <v>Zona Valle de México</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
-        <v>Sucursal Sur</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>Plantas</v>
       </c>
       <c r="C7" t="str">
-        <v>Av. Sur 300</v>
+        <v>Proyecto Alto Riesgo</v>
       </c>
       <c r="D7" t="str">
-        <v>Guadalajara</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Jalisco</v>
-      </c>
-      <c r="F7" t="str">
-        <v>44100</v>
-      </c>
-      <c r="G7" t="str">
-        <v/>
-      </c>
-      <c r="H7" t="str">
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <v/>
+        <v>Plantas de producción</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Distribución Primaria</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Proyecto Alto Riesgo</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Centros de distribución primaria</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Campo</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Descripcion</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Requerido</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Ejemplo</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>=== INSTRUCCIONES ===</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Plantilla: ubicaciones</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Ubicaciones físicas / Proyectos / Sucursales</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>IMPORTANTE:</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Primero carga los elementos PADRE, luego los HIJOS</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v/>
-      </c>
-      <c r="B6" t="str">
-        <v/>
-      </c>
-      <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>=== CAMPOS ===</v>
-      </c>
-      <c r="B7" t="str">
-        <v/>
-      </c>
-      <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>nombre</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Nombre del elemento (REQUERIDO)</v>
-      </c>
-      <c r="C8" t="str">
-        <v>SÍ</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Oficina Central</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>ubicacion_padre</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Nombre del elemento padre (vacío si es raíz)</v>
-      </c>
-      <c r="C9" t="str">
-        <v>No</v>
-      </c>
-      <c r="D9" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>direccion</v>
-      </c>
-      <c r="B10" t="str">
-        <v/>
-      </c>
-      <c r="C10" t="str">
-        <v>No</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Av. Reforma 123</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>ciudad</v>
-      </c>
-      <c r="B11" t="str">
-        <v/>
-      </c>
-      <c r="C11" t="str">
-        <v>No</v>
-      </c>
-      <c r="D11" t="str">
-        <v>CDMX</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>estado</v>
-      </c>
-      <c r="B12" t="str">
-        <v/>
-      </c>
-      <c r="C12" t="str">
-        <v>No</v>
-      </c>
-      <c r="D12" t="str">
-        <v>CDMX</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>codigo_postal</v>
-      </c>
-      <c r="B13" t="str">
-        <v/>
-      </c>
-      <c r="C13" t="str">
-        <v>No</v>
-      </c>
-      <c r="D13" t="str">
-        <v>06600</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>edificio</v>
-      </c>
-      <c r="B14" t="str">
-        <v/>
-      </c>
-      <c r="C14" t="str">
-        <v>No</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Torre A</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>piso</v>
-      </c>
-      <c r="B15" t="str">
-        <v/>
-      </c>
-      <c r="C15" t="str">
-        <v>No</v>
-      </c>
-      <c r="D15" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>comentario</v>
-      </c>
-      <c r="B16" t="str">
-        <v/>
-      </c>
-      <c r="C16" t="str">
-        <v>No</v>
-      </c>
-      <c r="D16" t="str">
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>